--- a/Result_9010.xlsx
+++ b/Result_9010.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZongSing_NB\Videos\Binary-Whale-Optimization-Algorithm\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804CE4BC-ACB8-463B-B5D5-2111EE1E0E0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="table" sheetId="1" r:id="rId1"/>
+    <sheet name="all_for_std" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,14 +25,101 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+  <si>
+    <t>Breastcancer</t>
+  </si>
+  <si>
+    <t>BreastEW</t>
+  </si>
+  <si>
+    <t>Congress</t>
+  </si>
+  <si>
+    <t>Exactly</t>
+  </si>
+  <si>
+    <t>Exactly2</t>
+  </si>
+  <si>
+    <t>HeartEW</t>
+  </si>
+  <si>
+    <t>Ionosphere</t>
+  </si>
+  <si>
+    <t>KrVsKpEW</t>
+  </si>
+  <si>
+    <t>Lymphography</t>
+  </si>
+  <si>
+    <t>M-of-n</t>
+  </si>
+  <si>
+    <t>PenglungEW</t>
+  </si>
+  <si>
+    <t>Sonar</t>
+  </si>
+  <si>
+    <t>SpectEW</t>
+  </si>
+  <si>
+    <t>Tic-tac-toe</t>
+  </si>
+  <si>
+    <t>Vote</t>
+  </si>
+  <si>
+    <t>WaveformEW</t>
+  </si>
+  <si>
+    <t>Wine</t>
+  </si>
+  <si>
+    <t>Zoo</t>
+  </si>
+  <si>
+    <t>avg acc</t>
+  </si>
+  <si>
+    <t>% selected</t>
+  </si>
+  <si>
+    <t>avg time</t>
+  </si>
+  <si>
+    <t>avg loss</t>
+  </si>
+  <si>
+    <t>worst loss</t>
+  </si>
+  <si>
+    <t>best loss</t>
+  </si>
+  <si>
+    <t>std loss</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +425,1739 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:S8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>0.96846066252588003</v>
+      </c>
+      <c r="C2">
+        <v>0.94807174185463605</v>
+      </c>
+      <c r="D2">
+        <v>0.96399577167019002</v>
+      </c>
+      <c r="E2">
+        <v>0.95040000000000002</v>
+      </c>
+      <c r="F2">
+        <v>0.73304999999999998</v>
+      </c>
+      <c r="G2">
+        <v>0.82851851851851799</v>
+      </c>
+      <c r="H2">
+        <v>0.92080555555555499</v>
+      </c>
+      <c r="I2">
+        <v>0.97643774490595603</v>
+      </c>
+      <c r="J2">
+        <v>0.84588095238095196</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>0.88482142857142798</v>
+      </c>
+      <c r="M2">
+        <v>0.85561904761904695</v>
+      </c>
+      <c r="N2">
+        <v>0.83070512820512799</v>
+      </c>
+      <c r="O2">
+        <v>0.80042269736842098</v>
+      </c>
+      <c r="P2">
+        <v>0.95050000000000001</v>
+      </c>
+      <c r="Q2">
+        <v>0.83257000000000003</v>
+      </c>
+      <c r="R2">
+        <v>0.947418300653594</v>
+      </c>
+      <c r="S2">
+        <v>0.94631818181818095</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>0.53333333333333299</v>
+      </c>
+      <c r="C3">
+        <v>0.24833333333333299</v>
+      </c>
+      <c r="D3">
+        <v>0.33124999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.40384615384615302</v>
+      </c>
+      <c r="F3">
+        <v>8.0769230769230704E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.40769230769230702</v>
+      </c>
+      <c r="H3">
+        <v>0.14852941176470499</v>
+      </c>
+      <c r="I3">
+        <v>0.49027777777777698</v>
+      </c>
+      <c r="J3">
+        <v>0.52222222222222203</v>
+      </c>
+      <c r="K3">
+        <v>0.46153846153846101</v>
+      </c>
+      <c r="L3">
+        <v>0.34015384615384597</v>
+      </c>
+      <c r="M3">
+        <v>0.40166666666666601</v>
+      </c>
+      <c r="N3">
+        <v>0.39318181818181802</v>
+      </c>
+      <c r="O3">
+        <v>0.78333333333333299</v>
+      </c>
+      <c r="P3">
+        <v>0.28125</v>
+      </c>
+      <c r="Q3">
+        <v>0.54374999999999996</v>
+      </c>
+      <c r="R3">
+        <v>0.41538461538461502</v>
+      </c>
+      <c r="S3">
+        <v>0.39374999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>23.564329671859699</v>
+      </c>
+      <c r="C4">
+        <v>22.053538489341701</v>
+      </c>
+      <c r="D4">
+        <v>17.036231625080099</v>
+      </c>
+      <c r="E4">
+        <v>32.190614855289397</v>
+      </c>
+      <c r="F4">
+        <v>27.800204801559399</v>
+      </c>
+      <c r="G4">
+        <v>14.2525985717773</v>
+      </c>
+      <c r="H4">
+        <v>16.748083233833299</v>
+      </c>
+      <c r="I4">
+        <v>231.17898422479601</v>
+      </c>
+      <c r="J4">
+        <v>11.3824160337448</v>
+      </c>
+      <c r="K4">
+        <v>33.451426148414598</v>
+      </c>
+      <c r="L4">
+        <v>14.9747984886169</v>
+      </c>
+      <c r="M4">
+        <v>15.1713404178619</v>
+      </c>
+      <c r="N4">
+        <v>14.4197527885437</v>
+      </c>
+      <c r="O4">
+        <v>32.306649804115203</v>
+      </c>
+      <c r="P4">
+        <v>14.413763999938899</v>
+      </c>
+      <c r="Q4">
+        <v>597.29664565324697</v>
+      </c>
+      <c r="R4">
+        <v>12.242374062538101</v>
+      </c>
+      <c r="S4">
+        <v>10.1815555095672</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5">
+        <v>2.97684920634919E-2</v>
+      </c>
+      <c r="C5">
+        <v>4.7784696115288197E-2</v>
+      </c>
+      <c r="D5">
+        <v>3.4482558139534797E-2</v>
+      </c>
+      <c r="E5">
+        <v>5.0370461538461503E-2</v>
+      </c>
+      <c r="F5">
+        <v>0.240387692307692</v>
+      </c>
+      <c r="G5">
+        <v>0.146373076923076</v>
+      </c>
+      <c r="H5">
+        <v>7.1379516806722595E-2</v>
+      </c>
+      <c r="I5">
+        <v>2.6064132543103399E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.129869603174603</v>
+      </c>
+      <c r="K5">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L5">
+        <v>8.7555315934065805E-2</v>
+      </c>
+      <c r="M5">
+        <v>0.116068095238095</v>
+      </c>
+      <c r="N5">
+        <v>0.150754428904428</v>
+      </c>
+      <c r="O5">
+        <v>0.18557671418128599</v>
+      </c>
+      <c r="P5">
+        <v>4.1792499999999899E-2</v>
+      </c>
+      <c r="Q5">
+        <v>0.16504269999999999</v>
+      </c>
+      <c r="R5">
+        <v>4.0150452488687802E-2</v>
+      </c>
+      <c r="S5">
+        <v>5.0224999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>3.2144306418219297E-2</v>
+      </c>
+      <c r="C6">
+        <v>5.2430451127819501E-2</v>
+      </c>
+      <c r="D6">
+        <v>3.7136627906976798E-2</v>
+      </c>
+      <c r="E6">
+        <v>0.30964923076923001</v>
+      </c>
+      <c r="F6">
+        <v>0.241118461538461</v>
+      </c>
+      <c r="G6">
+        <v>0.157076923076923</v>
+      </c>
+      <c r="H6">
+        <v>8.69743697478991E-2</v>
+      </c>
+      <c r="I6">
+        <v>3.3718785919540299E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.18220634920634901</v>
+      </c>
+      <c r="K6">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L6">
+        <v>0.108686813186813</v>
+      </c>
+      <c r="M6">
+        <v>0.14212857142857099</v>
+      </c>
+      <c r="N6">
+        <v>0.16743006993007001</v>
+      </c>
+      <c r="O6">
+        <v>0.22054791666666601</v>
+      </c>
+      <c r="P6">
+        <v>4.8074999999999903E-2</v>
+      </c>
+      <c r="Q6">
+        <v>0.17554</v>
+      </c>
+      <c r="R6">
+        <v>4.9708144796380097E-2</v>
+      </c>
+      <c r="S6">
+        <v>9.3200000000000005E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7">
+        <v>2.5982401656314501E-2</v>
+      </c>
+      <c r="C7">
+        <v>4.4715225563909701E-2</v>
+      </c>
+      <c r="D7">
+        <v>2.8918604651162801E-2</v>
+      </c>
+      <c r="E7">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F7">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G7">
+        <v>0.13815384615384599</v>
+      </c>
+      <c r="H7">
+        <v>6.3542016806722598E-2</v>
+      </c>
+      <c r="I7">
+        <v>1.8876137452107301E-2</v>
+      </c>
+      <c r="J7">
+        <v>9.9369841269841303E-2</v>
+      </c>
+      <c r="K7">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L7">
+        <v>6.7410714285714102E-2</v>
+      </c>
+      <c r="M7">
+        <v>9.3945238095238096E-2</v>
+      </c>
+      <c r="N7">
+        <v>0.136482517482517</v>
+      </c>
+      <c r="O7">
+        <v>0.156687171052631</v>
+      </c>
+      <c r="P7">
+        <v>3.87999999999998E-2</v>
+      </c>
+      <c r="Q7">
+        <v>0.15756399999999901</v>
+      </c>
+      <c r="R7">
+        <v>3.1669683257918399E-2</v>
+      </c>
+      <c r="S7">
+        <v>3.16499999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>1.54465766964634E-3</v>
+      </c>
+      <c r="C8">
+        <v>2.0102963518918099E-3</v>
+      </c>
+      <c r="D8">
+        <v>1.9072155799104199E-3</v>
+      </c>
+      <c r="E8">
+        <v>0.108918869029542</v>
+      </c>
+      <c r="F8">
+        <v>1.6764995936694899E-4</v>
+      </c>
+      <c r="G8">
+        <v>4.1906605013067397E-3</v>
+      </c>
+      <c r="H8">
+        <v>6.5019169193452396E-3</v>
+      </c>
+      <c r="I8">
+        <v>3.3392699300729199E-3</v>
+      </c>
+      <c r="J8">
+        <v>2.05912054422728E-2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>8.6736173798840297E-19</v>
+      </c>
+      <c r="L8">
+        <v>9.3946509377712296E-3</v>
+      </c>
+      <c r="M8">
+        <v>1.57713428331865E-2</v>
+      </c>
+      <c r="N8">
+        <v>8.3675835195062102E-3</v>
+      </c>
+      <c r="O8">
+        <v>2.1602321770105699E-2</v>
+      </c>
+      <c r="P8">
+        <v>2.81252888874049E-3</v>
+      </c>
+      <c r="Q8">
+        <v>3.9383597232858399E-3</v>
+      </c>
+      <c r="R8">
+        <v>4.3750057840710602E-3</v>
+      </c>
+      <c r="S8">
+        <v>1.64388583088972E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69EA5E23-0AF4-4EF0-BA72-48FBDADF88CF}">
+  <dimension ref="A1:S21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:S21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2.7962939958592101E-2</v>
+      </c>
+      <c r="C2">
+        <v>4.6522243107769298E-2</v>
+      </c>
+      <c r="D2">
+        <v>3.6979651162790603E-2</v>
+      </c>
+      <c r="E2">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F2">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G2">
+        <v>0.14471794871794799</v>
+      </c>
+      <c r="H2">
+        <v>6.6507563025210006E-2</v>
+      </c>
+      <c r="I2">
+        <v>2.5574233716474899E-2</v>
+      </c>
+      <c r="J2">
+        <v>0.118226984126984</v>
+      </c>
+      <c r="K2">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L2">
+        <v>8.3184340659340397E-2</v>
+      </c>
+      <c r="M2">
+        <v>0.10347142857142801</v>
+      </c>
+      <c r="N2">
+        <v>0.15188578088578</v>
+      </c>
+      <c r="O2">
+        <v>0.192816593567251</v>
+      </c>
+      <c r="P2">
+        <v>4.8074999999999903E-2</v>
+      </c>
+      <c r="Q2">
+        <v>0.16400399999999901</v>
+      </c>
+      <c r="R2">
+        <v>3.8708144796380101E-2</v>
+      </c>
+      <c r="S2">
+        <v>4.1824999999999897E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.9639406487232501E-2</v>
+      </c>
+      <c r="C3">
+        <v>4.6522243107769298E-2</v>
+      </c>
+      <c r="D3">
+        <v>3.2688953488372002E-2</v>
+      </c>
+      <c r="E3">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F3">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G3">
+        <v>0.13815384615384599</v>
+      </c>
+      <c r="H3">
+        <v>8.4224369747899E-2</v>
+      </c>
+      <c r="I3">
+        <v>2.06978807471263E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.11805873015873</v>
+      </c>
+      <c r="K3">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L3">
+        <v>9.8541208791208604E-2</v>
+      </c>
+      <c r="M3">
+        <v>0.13289523809523701</v>
+      </c>
+      <c r="N3">
+        <v>0.14318881118881099</v>
+      </c>
+      <c r="O3">
+        <v>0.15877138157894699</v>
+      </c>
+      <c r="P3">
+        <v>4.3349999999999798E-2</v>
+      </c>
+      <c r="Q3">
+        <v>0.16652600000000001</v>
+      </c>
+      <c r="R3">
+        <v>4.1900452488687803E-2</v>
+      </c>
+      <c r="S3">
+        <v>3.2899999999999902E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.0709523809523701E-2</v>
+      </c>
+      <c r="C4">
+        <v>4.6118734335839698E-2</v>
+      </c>
+      <c r="D4">
+        <v>3.4563953488371997E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F4">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G4">
+        <v>0.145307692307692</v>
+      </c>
+      <c r="H4">
+        <v>6.5625210084033506E-2</v>
+      </c>
+      <c r="I4">
+        <v>2.5167157567049601E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.13674761904761901</v>
+      </c>
+      <c r="K4">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L4">
+        <v>8.3215109890109704E-2</v>
+      </c>
+      <c r="M4">
+        <v>9.3945238095238096E-2</v>
+      </c>
+      <c r="N4">
+        <v>0.15887529137529099</v>
+      </c>
+      <c r="O4">
+        <v>0.15878223684210499</v>
+      </c>
+      <c r="P4">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="Q4">
+        <v>0.15844999999999901</v>
+      </c>
+      <c r="R4">
+        <v>3.7169683257918598E-2</v>
+      </c>
+      <c r="S4">
+        <v>3.37999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3.2123809523809298E-2</v>
+      </c>
+      <c r="C5">
+        <v>5.2026942355889803E-2</v>
+      </c>
+      <c r="D5">
+        <v>3.65116279069767E-2</v>
+      </c>
+      <c r="E5">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F5">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G5">
+        <v>0.14241025641025601</v>
+      </c>
+      <c r="H5">
+        <v>6.5919327731092298E-2</v>
+      </c>
+      <c r="I5">
+        <v>2.3242863984674199E-2</v>
+      </c>
+      <c r="J5">
+        <v>0.11265396825396801</v>
+      </c>
+      <c r="K5">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L5">
+        <v>8.0954945054944993E-2</v>
+      </c>
+      <c r="M5">
+        <v>0.10685238095238</v>
+      </c>
+      <c r="N5">
+        <v>0.14043123543123501</v>
+      </c>
+      <c r="O5">
+        <v>0.18862646198830399</v>
+      </c>
+      <c r="P5">
+        <v>4.2099999999999797E-2</v>
+      </c>
+      <c r="Q5">
+        <v>0.16231599999999999</v>
+      </c>
+      <c r="R5">
+        <v>4.70769230769231E-2</v>
+      </c>
+      <c r="S5">
+        <v>4.09250000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2.5982401656314501E-2</v>
+      </c>
+      <c r="C6">
+        <v>5.2430451127819501E-2</v>
+      </c>
+      <c r="D6">
+        <v>3.49912790697674E-2</v>
+      </c>
+      <c r="E6">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F6">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G6">
+        <v>0.14684615384615299</v>
+      </c>
+      <c r="H6">
+        <v>6.3542016806722598E-2</v>
+      </c>
+      <c r="I6">
+        <v>2.7616379310344899E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.18220634920634901</v>
+      </c>
+      <c r="K6">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L6">
+        <v>9.5343956043955999E-2</v>
+      </c>
+      <c r="M6">
+        <v>0.13182619047619001</v>
+      </c>
+      <c r="N6">
+        <v>0.16163170163170101</v>
+      </c>
+      <c r="O6">
+        <v>0.16084473684210501</v>
+      </c>
+      <c r="P6">
+        <v>3.9425000000000002E-2</v>
+      </c>
+      <c r="Q6">
+        <v>0.16470199999999899</v>
+      </c>
+      <c r="R6">
+        <v>4.3115384615384701E-2</v>
+      </c>
+      <c r="S6">
+        <v>3.16499999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2.9295238095237999E-2</v>
+      </c>
+      <c r="C7">
+        <v>4.9956766917293297E-2</v>
+      </c>
+      <c r="D7">
+        <v>3.3781976744185899E-2</v>
+      </c>
+      <c r="E7">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F7">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G7">
+        <v>0.14548717948717901</v>
+      </c>
+      <c r="H7">
+        <v>7.1733613445378E-2</v>
+      </c>
+      <c r="I7">
+        <v>2.72992456896551E-2</v>
+      </c>
+      <c r="J7">
+        <v>0.12593809523809499</v>
+      </c>
+      <c r="K7">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L7">
+        <v>8.2476648351648293E-2</v>
+      </c>
+      <c r="M7">
+        <v>0.119557142857143</v>
+      </c>
+      <c r="N7">
+        <v>0.14409790209790199</v>
+      </c>
+      <c r="O7">
+        <v>0.204015350877192</v>
+      </c>
+      <c r="P7">
+        <v>4.0675000000000003E-2</v>
+      </c>
+      <c r="Q7">
+        <v>0.16366</v>
+      </c>
+      <c r="R7">
+        <v>3.1993212669683101E-2</v>
+      </c>
+      <c r="S7">
+        <v>5.1449999999999899E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2.9618909592822401E-2</v>
+      </c>
+      <c r="C8">
+        <v>4.75842731829575E-2</v>
+      </c>
+      <c r="D8">
+        <v>3.2688953488372197E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.30964923076923001</v>
+      </c>
+      <c r="F8">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G8">
+        <v>0.14897435897435801</v>
+      </c>
+      <c r="H8">
+        <v>7.4914705882352897E-2</v>
+      </c>
+      <c r="I8">
+        <v>1.8876137452107301E-2</v>
+      </c>
+      <c r="J8">
+        <v>0.117755555555555</v>
+      </c>
+      <c r="K8">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L8">
+        <v>8.0585714285714205E-2</v>
+      </c>
+      <c r="M8">
+        <v>0.137011904761904</v>
+      </c>
+      <c r="N8">
+        <v>0.14850116550116499</v>
+      </c>
+      <c r="O8">
+        <v>0.21223976608187101</v>
+      </c>
+      <c r="P8">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="Q8">
+        <v>0.16497399999999901</v>
+      </c>
+      <c r="R8">
+        <v>4.1900452488687803E-2</v>
+      </c>
+      <c r="S8">
+        <v>4.2449999999999898E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2.9922084195997099E-2</v>
+      </c>
+      <c r="C9">
+        <v>4.6917606516290601E-2</v>
+      </c>
+      <c r="D9">
+        <v>3.3886627906976698E-2</v>
+      </c>
+      <c r="E9">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F9">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G9">
+        <v>0.14761538461538401</v>
+      </c>
+      <c r="H9">
+        <v>6.5703781512605003E-2</v>
+      </c>
+      <c r="I9">
+        <v>2.46317528735631E-2</v>
+      </c>
+      <c r="J9">
+        <v>0.131814285714285</v>
+      </c>
+      <c r="K9">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L9">
+        <v>8.2353571428571401E-2</v>
+      </c>
+      <c r="M9">
+        <v>0.100033333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.162854312354312</v>
+      </c>
+      <c r="O9">
+        <v>0.20804963450292399</v>
+      </c>
+      <c r="P9">
+        <v>4.7449999999999798E-2</v>
+      </c>
+      <c r="Q9">
+        <v>0.1691</v>
+      </c>
+      <c r="R9">
+        <v>3.9678733031673998E-2</v>
+      </c>
+      <c r="S9">
+        <v>4.0924999999999899E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2.8810973084886001E-2</v>
+      </c>
+      <c r="C10">
+        <v>4.6584273182957499E-2</v>
+      </c>
+      <c r="D10">
+        <v>3.4523255813953498E-2</v>
+      </c>
+      <c r="E10">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F10">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G10">
+        <v>0.157076923076923</v>
+      </c>
+      <c r="H10">
+        <v>6.6292016806722601E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.67436901340996E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.145098412698412</v>
+      </c>
+      <c r="K10">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L10">
+        <v>6.7410714285714102E-2</v>
+      </c>
+      <c r="M10">
+        <v>0.117114285714285</v>
+      </c>
+      <c r="N10">
+        <v>0.14895571095571</v>
+      </c>
+      <c r="O10">
+        <v>0.19385869883040899</v>
+      </c>
+      <c r="P10">
+        <v>4.5399999999999802E-2</v>
+      </c>
+      <c r="Q10">
+        <v>0.16835</v>
+      </c>
+      <c r="R10">
+        <v>3.1669683257918399E-2</v>
+      </c>
+      <c r="S10">
+        <v>5.0824999999999898E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2.8810973084886001E-2</v>
+      </c>
+      <c r="C11">
+        <v>4.6118734335839497E-2</v>
+      </c>
+      <c r="D11">
+        <v>3.7136627906976798E-2</v>
+      </c>
+      <c r="E11">
+        <v>0.30964923076923001</v>
+      </c>
+      <c r="F11">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G11">
+        <v>0.14105128205128201</v>
+      </c>
+      <c r="H11">
+        <v>6.3542016806722598E-2</v>
+      </c>
+      <c r="I11">
+        <v>2.55752035440612E-2</v>
+      </c>
+      <c r="J11">
+        <v>0.14947619047619001</v>
+      </c>
+      <c r="K11">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L11">
+        <v>8.4322802197801999E-2</v>
+      </c>
+      <c r="M11">
+        <v>9.8728571428571402E-2</v>
+      </c>
+      <c r="N11">
+        <v>0.136482517482517</v>
+      </c>
+      <c r="O11">
+        <v>0.156687171052631</v>
+      </c>
+      <c r="P11">
+        <v>3.87999999999998E-2</v>
+      </c>
+      <c r="Q11">
+        <v>0.16592199999999999</v>
+      </c>
+      <c r="R11">
+        <v>4.2346153846153901E-2</v>
+      </c>
+      <c r="S11">
+        <v>5.0825000000000002E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3.1356866804692698E-2</v>
+      </c>
+      <c r="C12">
+        <v>4.8219924812030003E-2</v>
+      </c>
+      <c r="D12">
+        <v>3.2313953488372099E-2</v>
+      </c>
+      <c r="E12">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F12">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G12">
+        <v>0.15128205128205099</v>
+      </c>
+      <c r="H12">
+        <v>6.9336134453781395E-2</v>
+      </c>
+      <c r="I12">
+        <v>3.3718785919540299E-2</v>
+      </c>
+      <c r="J12">
+        <v>0.105026984126984</v>
+      </c>
+      <c r="K12">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L12">
+        <v>9.3268406593406503E-2</v>
+      </c>
+      <c r="M12">
+        <v>0.104040476190476</v>
+      </c>
+      <c r="N12">
+        <v>0.15500349650349601</v>
+      </c>
+      <c r="O12">
+        <v>0.15777269736842101</v>
+      </c>
+      <c r="P12">
+        <v>4.0049999999999801E-2</v>
+      </c>
+      <c r="Q12">
+        <v>0.16830799999999899</v>
+      </c>
+      <c r="R12">
+        <v>4.3115384615384701E-2</v>
+      </c>
+      <c r="S12">
+        <v>4.2175000000000101E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3.2123809523809298E-2</v>
+      </c>
+      <c r="C13">
+        <v>4.4715225563909701E-2</v>
+      </c>
+      <c r="D13">
+        <v>3.6354651162790602E-2</v>
+      </c>
+      <c r="E13">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F13">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G13">
+        <v>0.14684615384615299</v>
+      </c>
+      <c r="H13">
+        <v>7.7233613445378005E-2</v>
+      </c>
+      <c r="I13">
+        <v>2.65110871647509E-2</v>
+      </c>
+      <c r="J13">
+        <v>0.11115555555555499</v>
+      </c>
+      <c r="K13">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L13">
+        <v>7.8817857142856995E-2</v>
+      </c>
+      <c r="M13">
+        <v>0.10387380952380899</v>
+      </c>
+      <c r="N13">
+        <v>0.156634032634032</v>
+      </c>
+      <c r="O13">
+        <v>0.15774013157894701</v>
+      </c>
+      <c r="P13">
+        <v>4.4775000000000002E-2</v>
+      </c>
+      <c r="Q13">
+        <v>0.163461999999999</v>
+      </c>
+      <c r="R13">
+        <v>3.7169683257918598E-2</v>
+      </c>
+      <c r="S13">
+        <v>5.2699999999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2.9336231884057901E-2</v>
+      </c>
+      <c r="C14">
+        <v>4.6855576441102602E-2</v>
+      </c>
+      <c r="D14">
+        <v>3.4209302325581302E-2</v>
+      </c>
+      <c r="E14">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F14">
+        <v>0.241118461538461</v>
+      </c>
+      <c r="G14">
+        <v>0.14607692307692299</v>
+      </c>
+      <c r="H14">
+        <v>7.1576470588235394E-2</v>
+      </c>
+      <c r="I14">
+        <v>2.8418115421455802E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.15358412698412599</v>
+      </c>
+      <c r="K14">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L14">
+        <v>9.5867032967032903E-2</v>
+      </c>
+      <c r="M14">
+        <v>0.14212857142857099</v>
+      </c>
+      <c r="N14">
+        <v>0.155238927738927</v>
+      </c>
+      <c r="O14">
+        <v>0.18759521198830301</v>
+      </c>
+      <c r="P14">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="Q14">
+        <v>0.16330599999999901</v>
+      </c>
+      <c r="R14">
+        <v>3.6400452488687798E-2</v>
+      </c>
+      <c r="S14">
+        <v>4.21749999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2.8810973084886001E-2</v>
+      </c>
+      <c r="C15">
+        <v>4.5847431077694303E-2</v>
+      </c>
+      <c r="D15">
+        <v>3.46162790697674E-2</v>
+      </c>
+      <c r="E15">
+        <v>0.30964923076923001</v>
+      </c>
+      <c r="F15">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G15">
+        <v>0.141820512820512</v>
+      </c>
+      <c r="H15">
+        <v>7.1655042016806697E-2</v>
+      </c>
+      <c r="I15">
+        <v>3.24764367816094E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.13014761904761801</v>
+      </c>
+      <c r="K15">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L15">
+        <v>8.4152197802197695E-2</v>
+      </c>
+      <c r="M15">
+        <v>0.11344047619047599</v>
+      </c>
+      <c r="N15">
+        <v>0.16743006993007001</v>
+      </c>
+      <c r="O15">
+        <v>0.19369586988303999</v>
+      </c>
+      <c r="P15">
+        <v>3.87999999999998E-2</v>
+      </c>
+      <c r="Q15">
+        <v>0.16151399999999999</v>
+      </c>
+      <c r="R15">
+        <v>3.94773755656109E-2</v>
+      </c>
+      <c r="S15">
+        <v>5.1449999999999899E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2.8810973084886098E-2</v>
+      </c>
+      <c r="C16">
+        <v>5.0724624060150297E-2</v>
+      </c>
+      <c r="D16">
+        <v>3.3781976744185899E-2</v>
+      </c>
+      <c r="E16">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F16">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G16">
+        <v>0.14897435897435801</v>
+      </c>
+      <c r="H16">
+        <v>6.8905042016806597E-2</v>
+      </c>
+      <c r="I16">
+        <v>2.4647078544061202E-2</v>
+      </c>
+      <c r="J16">
+        <v>0.117199999999999</v>
+      </c>
+      <c r="K16">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L16">
+        <v>9.9187362637362497E-2</v>
+      </c>
+      <c r="M16">
+        <v>0.102902380952381</v>
+      </c>
+      <c r="N16">
+        <v>0.158592074592074</v>
+      </c>
+      <c r="O16">
+        <v>0.15885822368420999</v>
+      </c>
+      <c r="P16">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="Q16">
+        <v>0.16983000000000001</v>
+      </c>
+      <c r="R16">
+        <v>4.2346153846153901E-2</v>
+      </c>
+      <c r="S16">
+        <v>6.0100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>3.1820634920634798E-2</v>
+      </c>
+      <c r="C17">
+        <v>4.75842731829575E-2</v>
+      </c>
+      <c r="D17">
+        <v>3.4418604651162803E-2</v>
+      </c>
+      <c r="E17">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F17">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G17">
+        <v>0.143179487179487</v>
+      </c>
+      <c r="H17">
+        <v>7.53659663865546E-2</v>
+      </c>
+      <c r="I17">
+        <v>2.7028256704980901E-2</v>
+      </c>
+      <c r="J17">
+        <v>0.13134285714285701</v>
+      </c>
+      <c r="K17">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L17">
+        <v>7.8202472527472394E-2</v>
+      </c>
+      <c r="M17">
+        <v>0.104011904761904</v>
+      </c>
+      <c r="N17">
+        <v>0.14151282051281999</v>
+      </c>
+      <c r="O17">
+        <v>0.22054791666666601</v>
+      </c>
+      <c r="P17">
+        <v>4.2724999999999798E-2</v>
+      </c>
+      <c r="Q17">
+        <v>0.16255599999999901</v>
+      </c>
+      <c r="R17">
+        <v>4.9708144796380097E-2</v>
+      </c>
+      <c r="S17">
+        <v>8.3024999999999904E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2.85077984817113E-2</v>
+      </c>
+      <c r="C18">
+        <v>4.7638157894736799E-2</v>
+      </c>
+      <c r="D18">
+        <v>3.6459302325581297E-2</v>
+      </c>
+      <c r="E18">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F18">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G18">
+        <v>0.15341025641025599</v>
+      </c>
+      <c r="H18">
+        <v>6.6370588235294001E-2</v>
+      </c>
+      <c r="I18">
+        <v>2.4053136973180001E-2</v>
+      </c>
+      <c r="J18">
+        <v>9.9369841269841303E-2</v>
+      </c>
+      <c r="K18">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L18">
+        <v>9.48376373626372E-2</v>
+      </c>
+      <c r="M18">
+        <v>0.13243571428571399</v>
+      </c>
+      <c r="N18">
+        <v>0.15017832167832099</v>
+      </c>
+      <c r="O18">
+        <v>0.20085259502923899</v>
+      </c>
+      <c r="P18">
+        <v>4.1474999999999998E-2</v>
+      </c>
+      <c r="Q18">
+        <v>0.17554</v>
+      </c>
+      <c r="R18">
+        <v>4.2993212669683298E-2</v>
+      </c>
+      <c r="S18">
+        <v>9.3200000000000005E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>3.2144306418219297E-2</v>
+      </c>
+      <c r="C19">
+        <v>4.6553258145363402E-2</v>
+      </c>
+      <c r="D19">
+        <v>3.4313953488371997E-2</v>
+      </c>
+      <c r="E19">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F19">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G19">
+        <v>0.14607692307692299</v>
+      </c>
+      <c r="H19">
+        <v>7.2400420168067206E-2</v>
+      </c>
+      <c r="I19">
+        <v>2.3623192049808402E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.14565396825396801</v>
+      </c>
+      <c r="K19">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L19">
+        <v>9.5422252747252606E-2</v>
+      </c>
+      <c r="M19">
+        <v>0.137511904761904</v>
+      </c>
+      <c r="N19">
+        <v>0.14850116550116499</v>
+      </c>
+      <c r="O19">
+        <v>0.20810391081871299</v>
+      </c>
+      <c r="P19">
+        <v>3.9425000000000002E-2</v>
+      </c>
+      <c r="Q19">
+        <v>0.16445199999999999</v>
+      </c>
+      <c r="R19">
+        <v>3.6846153846153702E-2</v>
+      </c>
+      <c r="S19">
+        <v>7.9624999999999793E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2.9659903381642299E-2</v>
+      </c>
+      <c r="C20">
+        <v>4.7948621553884602E-2</v>
+      </c>
+      <c r="D20">
+        <v>3.65116279069767E-2</v>
+      </c>
+      <c r="E20">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F20">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G20">
+        <v>0.14607692307692299</v>
+      </c>
+      <c r="H20">
+        <v>8.69743697478991E-2</v>
+      </c>
+      <c r="I20">
+        <v>2.6431405651340799E-2</v>
+      </c>
+      <c r="J20">
+        <v>0.106053968253968</v>
+      </c>
+      <c r="K20">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L20">
+        <v>8.4275274725274602E-2</v>
+      </c>
+      <c r="M20">
+        <v>0.13777619047619</v>
+      </c>
+      <c r="N20">
+        <v>0.14025874125874099</v>
+      </c>
+      <c r="O20">
+        <v>0.207195942982456</v>
+      </c>
+      <c r="P20">
+        <v>4.2724999999999999E-2</v>
+      </c>
+      <c r="Q20">
+        <v>0.16631799999999999</v>
+      </c>
+      <c r="R20">
+        <v>4.2669683257918603E-2</v>
+      </c>
+      <c r="S20">
+        <v>4.1550000000000101E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2.9922084195997099E-2</v>
+      </c>
+      <c r="C21">
+        <v>4.8824561403508798E-2</v>
+      </c>
+      <c r="D21">
+        <v>2.8918604651162801E-2</v>
+      </c>
+      <c r="E21">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="F21">
+        <v>0.24034923076923001</v>
+      </c>
+      <c r="G21">
+        <v>0.14607692307692299</v>
+      </c>
+      <c r="H21">
+        <v>7.9768067226890602E-2</v>
+      </c>
+      <c r="I21">
+        <v>2.89506106321838E-2</v>
+      </c>
+      <c r="J21">
+        <v>0.15988095238095201</v>
+      </c>
+      <c r="K21">
+        <v>4.6153846153846097E-3</v>
+      </c>
+      <c r="L21">
+        <v>0.108686813186813</v>
+      </c>
+      <c r="M21">
+        <v>0.101804761904761</v>
+      </c>
+      <c r="N21">
+        <v>0.144834498834498</v>
+      </c>
+      <c r="O21">
+        <v>0.184479751461988</v>
+      </c>
+      <c r="P21">
+        <v>4.2099999999999999E-2</v>
+      </c>
+      <c r="Q21">
+        <v>0.15756399999999901</v>
+      </c>
+      <c r="R21">
+        <v>3.67239819004525E-2</v>
+      </c>
+      <c r="S21">
+        <v>4.09250000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>